--- a/data/trans_orig/P37-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P37-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>63472</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49675</v>
+        <v>49952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79575</v>
+        <v>81390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1339702271978607</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1048483915425502</v>
+        <v>0.105433270997758</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1679597568304097</v>
+        <v>0.1717901164469063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -765,19 +765,19 @@
         <v>37724</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27437</v>
+        <v>27498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50585</v>
+        <v>50858</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.12300770536405</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08946523680983488</v>
+        <v>0.08966412807722736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.164942475358317</v>
+        <v>0.1658346417532845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -786,19 +786,19 @@
         <v>101196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84206</v>
+        <v>83224</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121775</v>
+        <v>121377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1296625059828113</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1078927780898581</v>
+        <v>0.1066354236224959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1560300622486814</v>
+        <v>0.1555199414896888</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>410304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394201</v>
+        <v>392386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424101</v>
+        <v>423824</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8660297728021393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8320402431695902</v>
+        <v>0.8282098835530938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8951516084574498</v>
+        <v>0.894566729002242</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>261</v>
@@ -836,19 +836,19 @@
         <v>268956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256095</v>
+        <v>255822</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279243</v>
+        <v>279182</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.87699229463595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.835057524641683</v>
+        <v>0.8341653582467154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9105347631901651</v>
+        <v>0.9103358719227727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>655</v>
@@ -857,19 +857,19 @@
         <v>679261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>658682</v>
+        <v>659080</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>696251</v>
+        <v>697233</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8703374940171886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8439699377513185</v>
+        <v>0.8444800585103112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8921072219101408</v>
+        <v>0.893364576377504</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>58175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44791</v>
+        <v>45616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74373</v>
+        <v>74793</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1585431993733594</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1220675914770778</v>
+        <v>0.1243170808936291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2026872936773741</v>
+        <v>0.2038323812792114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -982,19 +982,19 @@
         <v>25859</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17099</v>
+        <v>16609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37105</v>
+        <v>38055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06972250996774175</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04610400870309273</v>
+        <v>0.04478207938714521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1000459832589275</v>
+        <v>0.1026067142424367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -1003,19 +1003,19 @@
         <v>84034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66376</v>
+        <v>66964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105009</v>
+        <v>102488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1138950996353965</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08996281190552177</v>
+        <v>0.09075962001555905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1423239654692279</v>
+        <v>0.1389071487611062</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>308759</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292561</v>
+        <v>292141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>322143</v>
+        <v>321318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8414568006266406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7973127063226259</v>
+        <v>0.7961676187207886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8779324085229222</v>
+        <v>0.8756829191063709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>338</v>
@@ -1053,19 +1053,19 @@
         <v>345025</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333779</v>
+        <v>332829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>353785</v>
+        <v>354275</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9302774900322582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8999540167410723</v>
+        <v>0.8973932857575634</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9538959912969073</v>
+        <v>0.9552179206128548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>632</v>
@@ -1074,19 +1074,19 @@
         <v>653784</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>632809</v>
+        <v>635330</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>671442</v>
+        <v>670854</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8861049003646035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8576760345307721</v>
+        <v>0.8610928512388938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9100371880944782</v>
+        <v>0.9092403799844408</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>67735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53419</v>
+        <v>52855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83462</v>
+        <v>83861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1248833492648368</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09848754448086898</v>
+        <v>0.09744800116783454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1538786459913195</v>
+        <v>0.1546133154932987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>21106</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14321</v>
+        <v>13583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31169</v>
+        <v>30792</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1257955049268977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08535741566228407</v>
+        <v>0.080958648899343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1857682283600683</v>
+        <v>0.1835254800836823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -1220,19 +1220,19 @@
         <v>88842</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70493</v>
+        <v>72911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108293</v>
+        <v>108174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1250988511884592</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09926235415975432</v>
+        <v>0.1026672265814938</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1524889219889007</v>
+        <v>0.1523215181268266</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>474654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458927</v>
+        <v>458528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>488970</v>
+        <v>489534</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8751166507351632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8461213540086804</v>
+        <v>0.8453866845067014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.901512455519131</v>
+        <v>0.9025519988321656</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -1270,19 +1270,19 @@
         <v>146676</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136613</v>
+        <v>136990</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153461</v>
+        <v>154199</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8742044950731023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8142317716399315</v>
+        <v>0.8164745199163177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9146425843377159</v>
+        <v>0.9190413511006568</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>606</v>
@@ -1291,19 +1291,19 @@
         <v>621329</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>601878</v>
+        <v>601997</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639678</v>
+        <v>637260</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8749011488115408</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8475110780110994</v>
+        <v>0.847678481873173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9007376458402463</v>
+        <v>0.8973327734185061</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>203650</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175527</v>
+        <v>181757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228334</v>
+        <v>230234</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1644548632278607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1417444049445235</v>
+        <v>0.1467753843586527</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1843879036131182</v>
+        <v>0.1859223702744453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -1416,19 +1416,19 @@
         <v>92890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75095</v>
+        <v>76308</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111487</v>
+        <v>111658</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1300467470047689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1051337984396364</v>
+        <v>0.1068307222876738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1560822306898754</v>
+        <v>0.156322035735369</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>302</v>
@@ -1437,19 +1437,19 @@
         <v>296541</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265797</v>
+        <v>266299</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>328342</v>
+        <v>330505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1518680741710469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1361233919368731</v>
+        <v>0.1363801264706559</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1681546247924675</v>
+        <v>0.1692621792288241</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1034684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1010000</v>
+        <v>1008100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1062807</v>
+        <v>1056577</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8355451367721393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8156120963868818</v>
+        <v>0.8140776297255549</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8582555950554768</v>
+        <v>0.8532246156413473</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>604</v>
@@ -1487,19 +1487,19 @@
         <v>621395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>602798</v>
+        <v>602627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>639190</v>
+        <v>637977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8699532529952311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8439177693101245</v>
+        <v>0.8436779642646303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.894866201560363</v>
+        <v>0.8931692777123262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1616</v>
@@ -1508,19 +1508,19 @@
         <v>1656079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1624278</v>
+        <v>1622115</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1686823</v>
+        <v>1686321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.848131925828953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8318453752075325</v>
+        <v>0.8307378207711759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8638766080631268</v>
+        <v>0.8636198735293443</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>49450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37357</v>
+        <v>38113</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64055</v>
+        <v>64441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1414054197462512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.106823343146945</v>
+        <v>0.1089853297003676</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1831673982003117</v>
+        <v>0.1842715314748447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>75</v>
@@ -1633,19 +1633,19 @@
         <v>80708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65064</v>
+        <v>65047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98766</v>
+        <v>98926</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1419039944276068</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.114397678482477</v>
+        <v>0.1143687934966125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1736538428332134</v>
+        <v>0.1739349013681635</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -1654,19 +1654,19 @@
         <v>130158</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110804</v>
+        <v>107607</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154869</v>
+        <v>153048</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1417141607611099</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1206418658320077</v>
+        <v>0.1171609455617375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.16861859850841</v>
+        <v>0.1666365308974924</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>300255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>285650</v>
+        <v>285264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>312348</v>
+        <v>311592</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8585945802537488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8168326017996885</v>
+        <v>0.8157284685251553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8931766568530551</v>
+        <v>0.8910146702996323</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>464</v>
@@ -1704,19 +1704,19 @@
         <v>488044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>469986</v>
+        <v>469826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>503688</v>
+        <v>503705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8580960055723932</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8263461571667867</v>
+        <v>0.8260650986318365</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8856023215175235</v>
+        <v>0.8856312065033874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>754</v>
@@ -1725,19 +1725,19 @@
         <v>788299</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>763588</v>
+        <v>765409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>807653</v>
+        <v>810850</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.85828583923889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.83138140149159</v>
+        <v>0.8333634691025071</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8793581341679922</v>
+        <v>0.8828390544382624</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>12003</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7096</v>
+        <v>6084</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21097</v>
+        <v>20153</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04037616782085685</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02387070456273547</v>
+        <v>0.02046501328691884</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07096566357840565</v>
+        <v>0.06778964941027092</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>263</v>
@@ -1850,19 +1850,19 @@
         <v>277055</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>246407</v>
+        <v>248488</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>305312</v>
+        <v>306386</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2220265607720721</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1974660398980665</v>
+        <v>0.1991336808127984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2446713366504282</v>
+        <v>0.245532583325875</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>275</v>
@@ -1871,19 +1871,19 @@
         <v>289058</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>259102</v>
+        <v>259566</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>318640</v>
+        <v>325189</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1870766474247961</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1676891637094033</v>
+        <v>0.1679898955364301</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2062219510367837</v>
+        <v>0.2104604839945005</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>285283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276189</v>
+        <v>277133</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290190</v>
+        <v>291202</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9596238321791432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9290343364215944</v>
+        <v>0.9322103505897291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9761292954372646</v>
+        <v>0.9795349867130811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>974</v>
@@ -1921,19 +1921,19 @@
         <v>970789</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>942532</v>
+        <v>941458</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1001437</v>
+        <v>999356</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7779734392279279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7553286633495717</v>
+        <v>0.7544674166741249</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8025339601019335</v>
+        <v>0.8008663191872014</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1267</v>
@@ -1942,19 +1942,19 @@
         <v>1256072</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1226490</v>
+        <v>1219941</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1286028</v>
+        <v>1285564</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8129233525752039</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7937780489632167</v>
+        <v>0.7895395160054992</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.832310836290597</v>
+        <v>0.8320101044635698</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>454486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>419906</v>
+        <v>415690</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>495599</v>
+        <v>493632</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1390534442187049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.128473417218729</v>
+        <v>0.1271835007163172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1516322372336799</v>
+        <v>0.151030613576563</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>510</v>
@@ -2067,19 +2067,19 @@
         <v>535342</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>497329</v>
+        <v>495299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>582260</v>
+        <v>581097</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.158562283222623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1473033193784091</v>
+        <v>0.1467020474877016</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1724587084609924</v>
+        <v>0.1721144156096697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>969</v>
@@ -2088,19 +2088,19 @@
         <v>989828</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>930613</v>
+        <v>930662</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1052699</v>
+        <v>1043111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1489661178160666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1400544628527356</v>
+        <v>0.1400617685816354</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1584280757993089</v>
+        <v>0.1569850973880623</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2813939</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2772826</v>
+        <v>2774793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2848519</v>
+        <v>2852735</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8609465557812951</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8483677627663202</v>
+        <v>0.8489693864234369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8715265827812709</v>
+        <v>0.8728164992836828</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2784</v>
@@ -2138,19 +2138,19 @@
         <v>2840885</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2793967</v>
+        <v>2795130</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2878898</v>
+        <v>2880928</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.841437716777377</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8275412915390075</v>
+        <v>0.8278855843903302</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8526966806215909</v>
+        <v>0.8532979525122985</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5530</v>
@@ -2159,19 +2159,19 @@
         <v>5654824</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5591953</v>
+        <v>5601541</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5714039</v>
+        <v>5713990</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8510338821839334</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8415719242006913</v>
+        <v>0.8430149026119377</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8599455371472653</v>
+        <v>0.8599382314183647</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>66167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51024</v>
+        <v>52111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82438</v>
+        <v>83448</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1516908712769449</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1169755288114916</v>
+        <v>0.119466404370587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1889929381891605</v>
+        <v>0.1913077663991007</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2526,19 +2526,19 @@
         <v>36364</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25990</v>
+        <v>25549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51213</v>
+        <v>49815</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1156426488107103</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08265039355970608</v>
+        <v>0.08124940052420641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1628635167262457</v>
+        <v>0.1584173378103021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -2547,19 +2547,19 @@
         <v>102531</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84310</v>
+        <v>83238</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123299</v>
+        <v>125852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1365899439450028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1123164838831381</v>
+        <v>0.1108876703724031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1642565895120791</v>
+        <v>0.1676567692570307</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>370029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353758</v>
+        <v>352748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>385172</v>
+        <v>384085</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8483091287230551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8110070618108395</v>
+        <v>0.8086922336008993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8830244711885084</v>
+        <v>0.880533595629413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -2597,19 +2597,19 @@
         <v>278090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263241</v>
+        <v>264639</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288464</v>
+        <v>288905</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8843573511892897</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8371364832737543</v>
+        <v>0.8415826621896979</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9173496064402945</v>
+        <v>0.9187505994757936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>594</v>
@@ -2618,19 +2618,19 @@
         <v>648119</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>627351</v>
+        <v>624798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>666340</v>
+        <v>667412</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8634100560549971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8357434104879209</v>
+        <v>0.8323432307429696</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8876835161168618</v>
+        <v>0.8891123296275969</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>79382</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62007</v>
+        <v>62536</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98728</v>
+        <v>97937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1895465450352575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1480590579618428</v>
+        <v>0.1493229899403215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2357420916183377</v>
+        <v>0.2338528699940056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>32042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21518</v>
+        <v>21977</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44775</v>
+        <v>44670</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09509813834805377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06386294552537608</v>
+        <v>0.06522458497981629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1328884135967107</v>
+        <v>0.1325752339720341</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -2764,19 +2764,19 @@
         <v>111424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91805</v>
+        <v>90545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136751</v>
+        <v>136929</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1474373803345029</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1214770195879102</v>
+        <v>0.1198100621905264</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.180950557490759</v>
+        <v>0.1811856083541558</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>339415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>320069</v>
+        <v>320860</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356790</v>
+        <v>356261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8104534549647425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7642579083816623</v>
+        <v>0.7661471300059945</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8519409420381572</v>
+        <v>0.8506770100596789</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>276</v>
@@ -2814,19 +2814,19 @@
         <v>304898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>292165</v>
+        <v>292270</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>315422</v>
+        <v>314963</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9049018616519462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8671115864032898</v>
+        <v>0.8674247660279659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9361370544746239</v>
+        <v>0.9347754150201837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>586</v>
@@ -2835,19 +2835,19 @@
         <v>644313</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>618986</v>
+        <v>618808</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>663932</v>
+        <v>665192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8525626196654971</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8190494425092414</v>
+        <v>0.8188143916458444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8785229804120899</v>
+        <v>0.8801899378094737</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>111915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92686</v>
+        <v>92534</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133792</v>
+        <v>134942</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1780994203221295</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1474994086824746</v>
+        <v>0.1472564553210163</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.21291343603268</v>
+        <v>0.2147443319204271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -2960,19 +2960,19 @@
         <v>32217</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22542</v>
+        <v>22233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44753</v>
+        <v>43484</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1238513449322784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08665585874293975</v>
+        <v>0.08546834043056169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1720403198135949</v>
+        <v>0.1671618457192063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -2981,19 +2981,19 @@
         <v>144132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120489</v>
+        <v>121383</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168715</v>
+        <v>168680</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1622172694163296</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1356074548206651</v>
+        <v>0.1366138960199622</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1898845111009277</v>
+        <v>0.1898444229831339</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>516470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>494593</v>
+        <v>493443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535699</v>
+        <v>535851</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8219005796778704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7870865639673199</v>
+        <v>0.785255668079573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8525005913175254</v>
+        <v>0.8527435446789837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -3031,19 +3031,19 @@
         <v>227912</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215376</v>
+        <v>216645</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>237587</v>
+        <v>237896</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8761486550677215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8279596801864051</v>
+        <v>0.8328381542807937</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9133441412570603</v>
+        <v>0.9145316595694383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>705</v>
@@ -3052,19 +3052,19 @@
         <v>744383</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>719800</v>
+        <v>719835</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>768026</v>
+        <v>767132</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8377827305836704</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8101154888990724</v>
+        <v>0.8101555770168661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8643925451793358</v>
+        <v>0.8633861039800378</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>228279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>202650</v>
+        <v>204015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>257997</v>
+        <v>259587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1969603680688428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1748478775558311</v>
+        <v>0.1760252018646116</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2226014569609596</v>
+        <v>0.2239735304752883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -3177,19 +3177,19 @@
         <v>92838</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75744</v>
+        <v>76057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113708</v>
+        <v>113571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1210947726398368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09879820861635685</v>
+        <v>0.09920634314592008</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1483171596316024</v>
+        <v>0.1481384620178881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>300</v>
@@ -3198,19 +3198,19 @@
         <v>321117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>289652</v>
+        <v>288599</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>358604</v>
+        <v>358032</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1667563231025904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1504164032350953</v>
+        <v>0.1498693736170193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1862231520183855</v>
+        <v>0.1859263514520829</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>930730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>901012</v>
+        <v>899422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>956359</v>
+        <v>954994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8030396319311572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7773985430390403</v>
+        <v>0.7760264695247117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.825152122444169</v>
+        <v>0.8239747981353884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>624</v>
@@ -3248,19 +3248,19 @@
         <v>673819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>652949</v>
+        <v>653086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>690913</v>
+        <v>690600</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8789052273601632</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8516828403683977</v>
+        <v>0.8518615379821119</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9012017913836433</v>
+        <v>0.900793656854081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1494</v>
@@ -3269,19 +3269,19 @@
         <v>1604550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1567063</v>
+        <v>1567635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1636015</v>
+        <v>1637068</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8332436768974096</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8137768479816143</v>
+        <v>0.814073648547917</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8495835967649046</v>
+        <v>0.8501306263829808</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>93974</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77306</v>
+        <v>76449</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112896</v>
+        <v>112174</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1844181357921343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1517092143214006</v>
+        <v>0.1500258305501752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2215524780520348</v>
+        <v>0.220135220599906</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -3394,19 +3394,19 @@
         <v>150367</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>128392</v>
+        <v>130148</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173454</v>
+        <v>174459</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1974564354520185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.168599376476908</v>
+        <v>0.1709046734300732</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2277723928267139</v>
+        <v>0.2290922241036069</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>232</v>
@@ -3415,19 +3415,19 @@
         <v>244341</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>216834</v>
+        <v>216678</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>273269</v>
+        <v>274747</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1922294961041955</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1705890476338946</v>
+        <v>0.1704662558315231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2149875849730226</v>
+        <v>0.2161502457693489</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>415595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>396673</v>
+        <v>397395</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>432263</v>
+        <v>433120</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8155818642078657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7784475219479654</v>
+        <v>0.7798647794000939</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8482907856785998</v>
+        <v>0.8499741694498248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>560</v>
@@ -3465,19 +3465,19 @@
         <v>611155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>588068</v>
+        <v>587063</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>633130</v>
+        <v>631374</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8025435645479816</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7722276071732861</v>
+        <v>0.7709077758963928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8314006235230922</v>
+        <v>0.8290953265699265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>957</v>
@@ -3486,19 +3486,19 @@
         <v>1026750</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>997822</v>
+        <v>996344</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1054257</v>
+        <v>1054413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8077705038958044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7850124150269774</v>
+        <v>0.7838497542306512</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8294109523661054</v>
+        <v>0.8295337441684769</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>22444</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13525</v>
+        <v>14063</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31699</v>
+        <v>33470</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0847183899215133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05104981509259753</v>
+        <v>0.05308207570747434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1196499362817229</v>
+        <v>0.1263341916989791</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>280</v>
@@ -3611,19 +3611,19 @@
         <v>303496</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>273137</v>
+        <v>274360</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>334580</v>
+        <v>337966</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2735801269465963</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2462131858466229</v>
+        <v>0.2473156826548583</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3015996892452707</v>
+        <v>0.3046518746468819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>301</v>
@@ -3632,19 +3632,19 @@
         <v>325941</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>293935</v>
+        <v>295159</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>360106</v>
+        <v>361836</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2371719615424905</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.213882890927614</v>
+        <v>0.2147730688846624</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2620323735528576</v>
+        <v>0.2632909405596787</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>242486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233231</v>
+        <v>231460</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251405</v>
+        <v>250867</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9152816100784867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8803500637182767</v>
+        <v>0.8736658083010209</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9489501849074023</v>
+        <v>0.9469179242925255</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>764</v>
@@ -3682,19 +3682,19 @@
         <v>805855</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>774771</v>
+        <v>771385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>836214</v>
+        <v>834991</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7264198730534037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6984003107547287</v>
+        <v>0.6953481253531182</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7537868141533769</v>
+        <v>0.7526843173451416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1006</v>
@@ -3703,19 +3703,19 @@
         <v>1048340</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1014175</v>
+        <v>1012445</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1080346</v>
+        <v>1079122</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7628280384575096</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7379676264471425</v>
+        <v>0.7367090594403215</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.786117109072386</v>
+        <v>0.7852269311153376</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>602161</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>555745</v>
+        <v>554837</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>650620</v>
+        <v>653627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1762308071847458</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1626466763715751</v>
+        <v>0.1623810203223918</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1904132339657505</v>
+        <v>0.1912931820428222</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>600</v>
@@ -3828,19 +3828,19 @@
         <v>647326</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>599472</v>
+        <v>600140</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>691160</v>
+        <v>694926</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1823939825737201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1689103933323941</v>
+        <v>0.169098625475891</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1947448767822384</v>
+        <v>0.1958060498640813</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1147</v>
@@ -3849,19 +3849,19 @@
         <v>1249487</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1182878</v>
+        <v>1188920</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1315665</v>
+        <v>1321807</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1793708634391825</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1698088728947659</v>
+        <v>0.1706761158166477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1888711809781216</v>
+        <v>0.1897528142410711</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2814725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2766266</v>
+        <v>2763259</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2861141</v>
+        <v>2862049</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8237691928152543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8095867660342496</v>
+        <v>0.8087068179571778</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.837353323628425</v>
+        <v>0.8376189796776082</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2689</v>
@@ -3899,19 +3899,19 @@
         <v>2901728</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2857894</v>
+        <v>2854128</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2949582</v>
+        <v>2948914</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8176060174262798</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8052551232177615</v>
+        <v>0.8041939501359188</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8310896066676058</v>
+        <v>0.8309013745241091</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5342</v>
@@ -3920,19 +3920,19 @@
         <v>5716453</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5650275</v>
+        <v>5644133</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5783062</v>
+        <v>5777020</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8206291365608175</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8111288190218784</v>
+        <v>0.8102471857589288</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.830191127105234</v>
+        <v>0.8293238841833523</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>65425</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51192</v>
+        <v>51266</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81971</v>
+        <v>81977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1524740184917061</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1193028575475112</v>
+        <v>0.1194749758502467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1910335272249798</v>
+        <v>0.1910467257131764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -4287,19 +4287,19 @@
         <v>45905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34403</v>
+        <v>34297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61897</v>
+        <v>61091</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1322691624674428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09912778449923391</v>
+        <v>0.09882213894571291</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1783484070188064</v>
+        <v>0.1760262429480838</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -4308,19 +4308,19 @@
         <v>111330</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91956</v>
+        <v>93070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132397</v>
+        <v>133062</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1434393959664503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1184780775876978</v>
+        <v>0.1199130943962682</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1705824022264919</v>
+        <v>0.1714388956704149</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>363667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>347121</v>
+        <v>347115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>377900</v>
+        <v>377826</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8475259815082939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8089664727750201</v>
+        <v>0.8089532742868236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8806971424524889</v>
+        <v>0.8805250241497533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -4358,19 +4358,19 @@
         <v>301150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285158</v>
+        <v>285964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312652</v>
+        <v>312758</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8677308375325572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8216515929811927</v>
+        <v>0.8239737570519161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9008722155007659</v>
+        <v>0.9011778610542871</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>626</v>
@@ -4379,19 +4379,19 @@
         <v>664817</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>643750</v>
+        <v>643085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>684191</v>
+        <v>683077</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8565606040335497</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8294175977735078</v>
+        <v>0.828561104329585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8815219224123022</v>
+        <v>0.8800869056037318</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>50447</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37699</v>
+        <v>38606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64730</v>
+        <v>65672</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1337312953612633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09993768589789481</v>
+        <v>0.1023419910503144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.171593189065569</v>
+        <v>0.1740904666070773</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -4504,19 +4504,19 @@
         <v>33273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24131</v>
+        <v>23404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47487</v>
+        <v>47174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08937740224955587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06482115039732753</v>
+        <v>0.06286710698896437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1275592137142027</v>
+        <v>0.1267177197731116</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -4525,19 +4525,19 @@
         <v>83720</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66563</v>
+        <v>68119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102470</v>
+        <v>103905</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1117009245099503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08880941626071813</v>
+        <v>0.09088607693912434</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1367176263407002</v>
+        <v>0.1386325788496325</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>326780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312497</v>
+        <v>311555</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339528</v>
+        <v>338621</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8662687046387367</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8284068109344309</v>
+        <v>0.8259095333929227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9000623141021051</v>
+        <v>0.8976580089496856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>321</v>
@@ -4575,19 +4575,19 @@
         <v>339000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>324786</v>
+        <v>325099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348142</v>
+        <v>348869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9106225977504441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8724407862857971</v>
+        <v>0.8732822802268884</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9351788496026724</v>
+        <v>0.9371328930110356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>625</v>
@@ -4596,19 +4596,19 @@
         <v>665780</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>647030</v>
+        <v>645595</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>682937</v>
+        <v>681381</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8882990754900497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8632823736592998</v>
+        <v>0.8613674211503677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.911190583739282</v>
+        <v>0.9091139230608757</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>89818</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72967</v>
+        <v>71845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108830</v>
+        <v>107828</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1720934008786681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1398069038896509</v>
+        <v>0.1376567519331162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.208520167350954</v>
+        <v>0.2066019808017826</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -4721,19 +4721,19 @@
         <v>29054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19273</v>
+        <v>18913</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41012</v>
+        <v>41600</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1748943613107991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1160183601819623</v>
+        <v>0.1138506545342176</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2468795412616895</v>
+        <v>0.2504161605390921</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -4742,19 +4742,19 @@
         <v>118872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99306</v>
+        <v>99683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139186</v>
+        <v>137248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1727696780888445</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1443332088150786</v>
+        <v>0.1448810549070539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2022943929441491</v>
+        <v>0.1994782283765112</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>432096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>413084</v>
+        <v>414086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>448947</v>
+        <v>450069</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8279065991213319</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.791479832649046</v>
+        <v>0.7933980191982173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8601930961103487</v>
+        <v>0.8623432480668839</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -4792,19 +4792,19 @@
         <v>137069</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125111</v>
+        <v>124523</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146850</v>
+        <v>147210</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8251056386892009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7531204587383105</v>
+        <v>0.7495838394609078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8839816398180378</v>
+        <v>0.8861493454657825</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>539</v>
@@ -4813,19 +4813,19 @@
         <v>569164</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>548850</v>
+        <v>550788</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>588730</v>
+        <v>588353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8272303219111555</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7977056070558508</v>
+        <v>0.8005217716234887</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8556667911849213</v>
+        <v>0.8551189450929461</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>195982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172169</v>
+        <v>171931</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>223959</v>
+        <v>222763</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1704729522364111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1497594854500419</v>
+        <v>0.1495518615544701</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1948086835530915</v>
+        <v>0.1937681065487593</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -4938,19 +4938,19 @@
         <v>102128</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83072</v>
+        <v>82656</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121408</v>
+        <v>123682</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1236599732379439</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.100586460899589</v>
+        <v>0.1000834080322461</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1470052167004556</v>
+        <v>0.1497585859308007</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>287</v>
@@ -4959,19 +4959,19 @@
         <v>298110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266378</v>
+        <v>269050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>331008</v>
+        <v>332067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1509024988116524</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1348398179530741</v>
+        <v>0.1361921842766835</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1675553061267759</v>
+        <v>0.1680912843016265</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>953656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925679</v>
+        <v>926875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>977469</v>
+        <v>977707</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.829527047763589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8051913164469084</v>
+        <v>0.8062318934512407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.850240514549958</v>
+        <v>0.85044813844553</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>708</v>
@@ -5009,19 +5009,19 @@
         <v>723748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>704468</v>
+        <v>702194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>742804</v>
+        <v>743220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.876340026762056</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8529947832995445</v>
+        <v>0.8502414140691994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.899413539100411</v>
+        <v>0.8999165919677539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1614</v>
@@ -5030,19 +5030,19 @@
         <v>1677404</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1644506</v>
+        <v>1643447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1709136</v>
+        <v>1706464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8490975011883476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8324446938732241</v>
+        <v>0.8319087156983738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8651601820469259</v>
+        <v>0.8638078157233169</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>114229</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94873</v>
+        <v>96639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135737</v>
+        <v>134909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1840311417304852</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1528470305844641</v>
+        <v>0.1556918991013891</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2186820389043394</v>
+        <v>0.2173469773261226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -5155,19 +5155,19 @@
         <v>124101</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103613</v>
+        <v>102808</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>146780</v>
+        <v>145075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1681032892251899</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1403502713638359</v>
+        <v>0.1392596034400258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.198823484253034</v>
+        <v>0.1965141052040263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>229</v>
@@ -5176,19 +5176,19 @@
         <v>238330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212781</v>
+        <v>212053</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>267741</v>
+        <v>269942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1753783998934588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1565773277998289</v>
+        <v>0.1560420635847233</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.197020472330191</v>
+        <v>0.1986397858305931</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>506477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484969</v>
+        <v>485797</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>525833</v>
+        <v>524067</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8159688582695148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7813179610956608</v>
+        <v>0.7826530226738774</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8471529694155362</v>
+        <v>0.8443081008986109</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>589</v>
@@ -5226,19 +5226,19 @@
         <v>614143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>591464</v>
+        <v>593169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>634631</v>
+        <v>635436</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8318967107748101</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.801176515746966</v>
+        <v>0.8034858947959733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8596497286361641</v>
+        <v>0.8607403965599741</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1067</v>
@@ -5247,19 +5247,19 @@
         <v>1120620</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1091209</v>
+        <v>1089008</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1146169</v>
+        <v>1146897</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8246216001065412</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8029795276698085</v>
+        <v>0.8013602141694051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8434226722001709</v>
+        <v>0.8439579364152766</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>16974</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10225</v>
+        <v>9730</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28220</v>
+        <v>28418</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05911414557525382</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03560869820014072</v>
+        <v>0.03388672762675437</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09827741940746647</v>
+        <v>0.09896593159192128</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>227</v>
@@ -5372,19 +5372,19 @@
         <v>273886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>245639</v>
+        <v>245153</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>305667</v>
+        <v>304421</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2531231789209871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.227017597588925</v>
+        <v>0.2265689685670285</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2824957621014562</v>
+        <v>0.2813434064812608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>242</v>
@@ -5393,19 +5393,19 @@
         <v>290860</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>256816</v>
+        <v>257729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>322116</v>
+        <v>324417</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2124352055500722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1875704383133736</v>
+        <v>0.1882373226824688</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2352634669635549</v>
+        <v>0.2369445471698527</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>270171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258925</v>
+        <v>258727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>276920</v>
+        <v>277415</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9408858544247461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9017225805925335</v>
+        <v>0.9010340684080788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9643913017998593</v>
+        <v>0.9661132723732455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>765</v>
@@ -5443,19 +5443,19 @@
         <v>808139</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>776358</v>
+        <v>777604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>836386</v>
+        <v>836872</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7468768210790129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7175042378985438</v>
+        <v>0.7186565935187392</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.772982402411075</v>
+        <v>0.7734310314329714</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1022</v>
@@ -5464,19 +5464,19 @@
         <v>1078310</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1047054</v>
+        <v>1044753</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1112354</v>
+        <v>1111441</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7875647944499278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7647365330364451</v>
+        <v>0.7630554528301472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8124295616866263</v>
+        <v>0.8117626773175312</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>532876</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>491570</v>
+        <v>494411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>570614</v>
+        <v>575697</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1573892138622306</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1451890270893735</v>
+        <v>0.1460283735781236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1685353074311251</v>
+        <v>0.1700368086851803</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>522</v>
@@ -5589,19 +5589,19 @@
         <v>608346</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>562582</v>
+        <v>560958</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>650669</v>
+        <v>657079</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1722581125569181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1592996415798789</v>
+        <v>0.1588399236906327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1842420643358958</v>
+        <v>0.1860572871517618</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1057</v>
@@ -5610,19 +5610,19 @@
         <v>1141222</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1075562</v>
+        <v>1081362</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1206413</v>
+        <v>1210111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1649804422703873</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1554882872913557</v>
+        <v>0.1563268011383723</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1744046911786654</v>
+        <v>0.1749393985202804</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2852846</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2815108</v>
+        <v>2810025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2894152</v>
+        <v>2891311</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8426107861377694</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8314646925688749</v>
+        <v>0.8299631913148194</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8548109729106265</v>
+        <v>0.8539716264218763</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2804</v>
@@ -5660,19 +5660,19 @@
         <v>2923250</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2880927</v>
+        <v>2874517</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2969014</v>
+        <v>2970638</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8277418874430819</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8157579356641042</v>
+        <v>0.8139427128482384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.840700358420121</v>
+        <v>0.8411600763093673</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5493</v>
@@ -5681,19 +5681,19 @@
         <v>5776096</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5710905</v>
+        <v>5707207</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5841756</v>
+        <v>5835956</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8350195577296127</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8255953088213346</v>
+        <v>0.8250606014797197</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8445117127086443</v>
+        <v>0.8436731988616276</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>207134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183748</v>
+        <v>184086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>232569</v>
+        <v>231168</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3761848626713247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3337131743252618</v>
+        <v>0.3343264047964782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4223784342677755</v>
+        <v>0.4198342510343648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>265</v>
@@ -6048,19 +6048,19 @@
         <v>178300</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>159485</v>
+        <v>161351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195261</v>
+        <v>197859</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3650621018651937</v>
+        <v>0.3650621018651936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3265390838483931</v>
+        <v>0.3303587011252571</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3997880654423269</v>
+        <v>0.4051065688337465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>507</v>
@@ -6069,19 +6069,19 @@
         <v>385435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>357247</v>
+        <v>354620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>415831</v>
+        <v>413154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3709564458867579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3438277379613972</v>
+        <v>0.3412998215237273</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4002111274576344</v>
+        <v>0.3976342978786477</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>343484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>318049</v>
+        <v>319450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>366870</v>
+        <v>366532</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6238151373286753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5776215657322245</v>
+        <v>0.5801657489656353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6662868256747383</v>
+        <v>0.6656735952035218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>421</v>
@@ -6119,19 +6119,19 @@
         <v>310111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293150</v>
+        <v>290552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>328926</v>
+        <v>327060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6349378981348064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6002119345576731</v>
+        <v>0.5948934311662533</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6734609161516072</v>
+        <v>0.6696412988747426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>733</v>
@@ -6140,19 +6140,19 @@
         <v>653594</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623198</v>
+        <v>625875</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>681782</v>
+        <v>684409</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6290435541132422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5997888725423656</v>
+        <v>0.6023657021213522</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6561722620386028</v>
+        <v>0.6587001784762728</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>180264</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159800</v>
+        <v>158467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202187</v>
+        <v>202570</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.373054231152078</v>
+        <v>0.3730542311520781</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3307038486639041</v>
+        <v>0.3279446846110065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4184235872750695</v>
+        <v>0.4192153875318839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>195</v>
@@ -6265,19 +6265,19 @@
         <v>128253</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111228</v>
+        <v>112228</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143085</v>
+        <v>144297</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3030961169932769</v>
+        <v>0.3030961169932768</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2628614265203811</v>
+        <v>0.2652251262295572</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3381484646745042</v>
+        <v>0.3410125813799526</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>405</v>
@@ -6286,19 +6286,19 @@
         <v>308517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283613</v>
+        <v>284224</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>333188</v>
+        <v>336580</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3403934348194023</v>
+        <v>0.3403934348194024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3129156100796085</v>
+        <v>0.3135906513171914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3676131540534592</v>
+        <v>0.3713551862403238</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>302948</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>281025</v>
+        <v>280642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>323412</v>
+        <v>324745</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.626945768847922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5815764127249307</v>
+        <v>0.5807846124681164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6692961513360959</v>
+        <v>0.6720553153889935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>395</v>
@@ -6336,19 +6336,19 @@
         <v>294890</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>280058</v>
+        <v>278846</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>311915</v>
+        <v>310915</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.696903883006723</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6618515353254957</v>
+        <v>0.6589874186200476</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.737138573479619</v>
+        <v>0.7347748737704428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>666</v>
@@ -6357,19 +6357,19 @@
         <v>597838</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>573167</v>
+        <v>569775</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>622742</v>
+        <v>622131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6596065651805977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6323868459465408</v>
+        <v>0.6286448137596763</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6870843899203918</v>
+        <v>0.6864093486828085</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>149008</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129513</v>
+        <v>131169</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168957</v>
+        <v>168515</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3159544392750915</v>
+        <v>0.3159544392750914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2746167585400614</v>
+        <v>0.2781286629535607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3582548281271439</v>
+        <v>0.3573165495076607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -6482,19 +6482,19 @@
         <v>72858</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62299</v>
+        <v>61654</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83702</v>
+        <v>83718</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3885835622695167</v>
+        <v>0.3885835622695166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3322666132129972</v>
+        <v>0.328828673948326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4464193494607056</v>
+        <v>0.4465031815866597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>317</v>
@@ -6503,19 +6503,19 @@
         <v>221866</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>201660</v>
+        <v>200212</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>246401</v>
+        <v>245217</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3366153062485745</v>
+        <v>0.3366153062485746</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3059585708147636</v>
+        <v>0.3037622214808084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3738399875246476</v>
+        <v>0.3720434263583627</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>322604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302655</v>
+        <v>303097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>342099</v>
+        <v>340443</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6840455607249085</v>
+        <v>0.6840455607249086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.641745171872856</v>
+        <v>0.6426834504923394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7253832414599386</v>
+        <v>0.7218713370464394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -6553,19 +6553,19 @@
         <v>114639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103795</v>
+        <v>103779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125198</v>
+        <v>125843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6114164377304833</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5535806505392945</v>
+        <v>0.5534968184133401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6677333867870028</v>
+        <v>0.6711713260516738</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>460</v>
@@ -6574,19 +6574,19 @@
         <v>437243</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>412708</v>
+        <v>413892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457449</v>
+        <v>458897</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6633846937514256</v>
+        <v>0.6633846937514255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6261600124753526</v>
+        <v>0.6279565736416373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6940414291852368</v>
+        <v>0.6962377785191917</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>378731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>343866</v>
+        <v>347843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>408832</v>
+        <v>411809</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3346140576672838</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3038103677064813</v>
+        <v>0.3073240966805622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3612088793267286</v>
+        <v>0.3638394284107683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>423</v>
@@ -6699,19 +6699,19 @@
         <v>260541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>238499</v>
+        <v>238691</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283113</v>
+        <v>283361</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3025282540256268</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2769340487503663</v>
+        <v>0.2771578049350145</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3287382063378136</v>
+        <v>0.3290258438161318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>888</v>
@@ -6720,19 +6720,19 @@
         <v>639271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>601252</v>
+        <v>601768</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>680931</v>
+        <v>678540</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3207495774905213</v>
+        <v>0.3207495774905214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3016737012468785</v>
+        <v>0.3019328438423883</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3416522921164297</v>
+        <v>0.3404525078139218</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>753112</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>723011</v>
+        <v>720034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>787977</v>
+        <v>784000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6653859423327161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6387911206732714</v>
+        <v>0.6361605715892316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6961896322935186</v>
+        <v>0.6926759033194378</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>807</v>
@@ -6770,19 +6770,19 @@
         <v>600670</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>578098</v>
+        <v>577850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>622712</v>
+        <v>622520</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6974717459743732</v>
+        <v>0.6974717459743733</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6712617936621864</v>
+        <v>0.6709741561838684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7230659512496331</v>
+        <v>0.7228421950649856</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1460</v>
@@ -6791,19 +6791,19 @@
         <v>1353783</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1312123</v>
+        <v>1314514</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1391802</v>
+        <v>1391286</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6792504225094784</v>
+        <v>0.6792504225094788</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6583477078835702</v>
+        <v>0.6595474921860783</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6983262987531215</v>
+        <v>0.6980671561576117</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>140443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122728</v>
+        <v>121522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160065</v>
+        <v>159786</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2472736147757133</v>
+        <v>0.2472736147757132</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2160842507204522</v>
+        <v>0.2139615672012436</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.281821788502182</v>
+        <v>0.2813303438656544</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>537</v>
@@ -6916,19 +6916,19 @@
         <v>293509</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>272140</v>
+        <v>269779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>316834</v>
+        <v>315614</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3535715868497786</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3278292127491532</v>
+        <v>0.3249852232963796</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3816695067820418</v>
+        <v>0.3802000806496393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>718</v>
@@ -6937,19 +6937,19 @@
         <v>433952</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>404242</v>
+        <v>406694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>461455</v>
+        <v>466701</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3103888590481614</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2891382096772644</v>
+        <v>0.2908921275465484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3300605550440824</v>
+        <v>0.3338133185305597</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>427521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>407899</v>
+        <v>408178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>445236</v>
+        <v>446442</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7527263852242867</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7181782114978184</v>
+        <v>0.7186696561343455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.783915749279548</v>
+        <v>0.7860384327987563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>752</v>
@@ -6987,19 +6987,19 @@
         <v>536618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>513293</v>
+        <v>514513</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>557987</v>
+        <v>560348</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6464284131502215</v>
+        <v>0.6464284131502214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6183304932179583</v>
+        <v>0.6197999193503607</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6721707872508468</v>
+        <v>0.6750147767036203</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1118</v>
@@ -7008,19 +7008,19 @@
         <v>964139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>936636</v>
+        <v>931390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>993849</v>
+        <v>991397</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6896111409518387</v>
+        <v>0.6896111409518386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6699394449559175</v>
+        <v>0.6661866814694404</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7108617903227356</v>
+        <v>0.7091078724534516</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>11835</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6617</v>
+        <v>6160</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22685</v>
+        <v>20770</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04988953573239244</v>
+        <v>0.04988953573239245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02789098234066874</v>
+        <v>0.02596857881311915</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0956241696630707</v>
+        <v>0.08755494824912331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>649</v>
@@ -7133,19 +7133,19 @@
         <v>379148</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>352140</v>
+        <v>352391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>408365</v>
+        <v>405490</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4490774447964122</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4170880939715174</v>
+        <v>0.417386131855687</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4836840372463103</v>
+        <v>0.4802786583597345</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>662</v>
@@ -7154,19 +7154,19 @@
         <v>390983</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>358542</v>
+        <v>357537</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>424965</v>
+        <v>423401</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3615160173643798</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.331520309555205</v>
+        <v>0.3305910621645556</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3929374795206645</v>
+        <v>0.3914909365719496</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>225393</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214543</v>
+        <v>216458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230611</v>
+        <v>231068</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9501104642676077</v>
+        <v>0.9501104642676075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9043758303369293</v>
+        <v>0.912445051750877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9721090176593313</v>
+        <v>0.9740314211868809</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>510</v>
@@ -7204,19 +7204,19 @@
         <v>465133</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>435916</v>
+        <v>438791</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>492141</v>
+        <v>491890</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5509225552035879</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5163159627536898</v>
+        <v>0.5197213416402654</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5829119060284828</v>
+        <v>0.5826138681443129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>609</v>
@@ -7225,19 +7225,19 @@
         <v>690526</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>656544</v>
+        <v>658108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>722967</v>
+        <v>723972</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6384839826356203</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6070625204793355</v>
+        <v>0.6085090634280503</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6684796904447949</v>
+        <v>0.6694089378354442</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1067414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1016041</v>
+        <v>1015200</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1129814</v>
+        <v>1124914</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3100717116728894</v>
+        <v>0.3100717116728893</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2951482300840313</v>
+        <v>0.2949039988110799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3281979870285553</v>
+        <v>0.3267747721242362</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2196</v>
@@ -7350,19 +7350,19 @@
         <v>1312609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1260726</v>
+        <v>1265100</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1360178</v>
+        <v>1363392</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3611357037237124</v>
+        <v>0.3611357037237123</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3468611333300078</v>
+        <v>0.3480645600242863</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3742231641630816</v>
+        <v>0.3751073688458252</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3497</v>
@@ -7371,19 +7371,19 @@
         <v>2380024</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2305539</v>
+        <v>2307364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2450746</v>
+        <v>2448866</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3362970815244296</v>
+        <v>0.3362970815244297</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.325772396980048</v>
+        <v>0.3260303620738411</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3462901316476594</v>
+        <v>0.3460245786917568</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2375062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2312662</v>
+        <v>2317562</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2426435</v>
+        <v>2427276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6899282883271107</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6718020129714447</v>
+        <v>0.6732252278757637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.704851769915969</v>
+        <v>0.7050960011889198</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3047</v>
@@ -7421,19 +7421,19 @@
         <v>2322061</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2274492</v>
+        <v>2271278</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2373944</v>
+        <v>2369570</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6388642962762875</v>
+        <v>0.6388642962762876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6257768358369183</v>
+        <v>0.6248926311541747</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6531388666699922</v>
+        <v>0.6519354399757135</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5046</v>
@@ -7442,19 +7442,19 @@
         <v>4697122</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4626400</v>
+        <v>4628280</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4771607</v>
+        <v>4769782</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6637029184755703</v>
+        <v>0.6637029184755705</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6537098683523406</v>
+        <v>0.6539754213082432</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.674227603019952</v>
+        <v>0.6739696379261588</v>
       </c>
     </row>
     <row r="24">
